--- a/DbLayouts/XX-系統/TxFile.xlsx
+++ b/DbLayouts/XX-系統/TxFile.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC9A92D-5569-4FEE-8AF3-1FCFC0545DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435AFDE1-04F8-4B22-BFA4-5AA441C51EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -316,10 +325,6 @@
   </si>
   <si>
     <t>FileDate = ,AND BrNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.PDF 2.EXCEL 3.DATA 4.DBF</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -422,6 +427,14 @@
   </si>
   <si>
     <t xml:space="preserve">FileDate &gt;= ,AND FileDate &lt;= ,AND BrNo = ,AND CreateEmpNo % ,AND FileCode % ,AND FileItem %,AND CreateDate &gt;=,AND CreateDate &lt;  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.PDF
+2.EXCEL
+3.TXT
+4.DBF
+5.CSV</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1047,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1262,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="78" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1268,7 +1281,7 @@
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1359,20 +1372,20 @@
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="D18" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1381,16 +1394,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>72</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="17"/>
@@ -1401,16 +1414,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="17"/>
@@ -1421,16 +1434,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="17"/>
@@ -1523,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -1560,24 +1573,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
